--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/4.1.PVE_vehiculos_hibridos_recorrido_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/4.1.PVE_vehiculos_hibridos_recorrido_exp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F13535-8861-422C-B63E-3F7DC24953C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,12 +26,17 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1274,9 +1280,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -2045,7 +2051,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2098,7 +2104,7 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2126,9 +2132,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2168,7 +2174,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="12" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2182,7 +2188,7 @@
     <xf numFmtId="0" fontId="25" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2288,90 +2294,6 @@
     <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2450,6 +2372,90 @@
     <xf numFmtId="3" fontId="25" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="27" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2473,7 +2479,7 @@
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 3" xfId="2"/>
+    <cellStyle name="Normal 10 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2511,7 +2517,7 @@
             <xdr:cNvPr id="2" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3078,7 +3084,7 @@
             <xdr:cNvPr id="7" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3838,7 +3844,7 @@
             <xdr:cNvPr id="9" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4267,7 +4273,7 @@
         <xdr:cNvPr id="10" name="Flecha derecha 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4324,7 +4330,7 @@
             <xdr:cNvPr id="12" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4886,7 +4892,7 @@
             <xdr:cNvPr id="17" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5568,7 +5574,7 @@
             <xdr:cNvPr id="19" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6779,7 +6785,7 @@
         <xdr:cNvPr id="20" name="Flecha derecha 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6839,7 +6845,7 @@
         <xdr:cNvPr id="21" name="Flecha derecha 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6899,7 +6905,7 @@
         <xdr:cNvPr id="22" name="Flecha derecha 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6956,7 +6962,7 @@
             <xdr:cNvPr id="23" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7240,7 +7246,7 @@
         <xdr:cNvPr id="24" name="Flecha derecha 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7297,7 +7303,7 @@
             <xdr:cNvPr id="25" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8063,33 +8069,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="General"/>
-      <sheetName val="Proveedores"/>
-      <sheetName val="Variables"/>
-      <sheetName val="Factores"/>
-      <sheetName val="Vehiculo electrico recorrido"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="7">
-          <cell r="V7">
-            <v>178.9341532965702</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -8352,7 +8331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:G51"/>
   <sheetViews>
@@ -8381,34 +8360,34 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="139"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="142"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="113"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="145"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -8417,10 +8396,10 @@
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="115"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
@@ -8432,10 +8411,10 @@
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="117"/>
+      <c r="E10" s="149"/>
       <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
@@ -8719,7 +8698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A2:G19"/>
   <sheetViews>
@@ -8748,14 +8727,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -8766,14 +8745,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119" t="s">
+      <c r="C6" s="151"/>
+      <c r="D6" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="119"/>
+      <c r="E6" s="151"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -8822,17 +8801,17 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="122"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="154"/>
     </row>
     <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="155" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -8850,7 +8829,7 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B16" s="124"/>
+      <c r="B16" s="156"/>
       <c r="C16" s="14" t="s">
         <v>31</v>
       </c>
@@ -8866,7 +8845,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="125"/>
+      <c r="B17" s="157"/>
       <c r="C17" s="14" t="s">
         <v>33</v>
       </c>
@@ -8924,7 +8903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B2:L11"/>
   <sheetViews>
@@ -8991,7 +8970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:Z97"/>
   <sheetViews>
@@ -9039,56 +9018,56 @@
       <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="N2" s="129" t="s">
+      <c r="N2" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="T2" s="129" t="s">
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="T2" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="H3" s="126" t="s">
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="H3" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="N3" s="126" t="s">
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="N3" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="T3" s="126" t="s">
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="T3" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
+      <c r="A4" s="163"/>
       <c r="B4" s="19" t="s">
         <v>44</v>
       </c>
@@ -9151,7 +9130,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
+      <c r="A5" s="163"/>
       <c r="B5" s="17" t="s">
         <v>46</v>
       </c>
@@ -9227,7 +9206,7 @@
       <c r="Z5" s="23"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
+      <c r="A6" s="163"/>
       <c r="B6" s="17" t="s">
         <v>49</v>
       </c>
@@ -9302,7 +9281,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
+      <c r="A7" s="163"/>
       <c r="B7" s="17" t="s">
         <v>47</v>
       </c>
@@ -9402,40 +9381,40 @@
       <c r="X8" s="38"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="H10" s="126" t="s">
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="H10" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="N10" s="126" t="s">
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="N10" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="T10" s="126" t="s">
+      <c r="O10" s="160"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="160"/>
+      <c r="R10" s="160"/>
+      <c r="T10" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="126"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="160"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="19" t="s">
         <v>44</v>
       </c>
@@ -9498,7 +9477,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="127"/>
+      <c r="A12" s="163"/>
       <c r="B12" s="17" t="s">
         <v>46</v>
       </c>
@@ -9573,7 +9552,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="127"/>
+      <c r="A13" s="163"/>
       <c r="B13" s="17" t="s">
         <v>48</v>
       </c>
@@ -9673,40 +9652,40 @@
       <c r="X14" s="38"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="163" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="H16" s="126" t="s">
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="H16" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="N16" s="126" t="s">
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="N16" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="T16" s="126" t="s">
+      <c r="O16" s="160"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="160"/>
+      <c r="R16" s="160"/>
+      <c r="T16" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="U16" s="126"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="126"/>
-      <c r="X16" s="126"/>
+      <c r="U16" s="160"/>
+      <c r="V16" s="160"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="160"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="127"/>
+      <c r="A17" s="163"/>
       <c r="B17" s="19" t="s">
         <v>44</v>
       </c>
@@ -9769,7 +9748,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
+      <c r="A18" s="163"/>
       <c r="B18" s="17" t="s">
         <v>46</v>
       </c>
@@ -9840,7 +9819,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="17" t="s">
         <v>48</v>
       </c>
@@ -9960,40 +9939,40 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="127" t="s">
+      <c r="A22" s="163" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="H22" s="126" t="s">
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="H22" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="N22" s="126" t="s">
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="160"/>
+      <c r="N22" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="126"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
-      <c r="T22" s="126" t="s">
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="160"/>
+      <c r="R22" s="160"/>
+      <c r="T22" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="U22" s="126"/>
-      <c r="V22" s="126"/>
-      <c r="W22" s="126"/>
-      <c r="X22" s="126"/>
+      <c r="U22" s="160"/>
+      <c r="V22" s="160"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
     </row>
     <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="19" t="s">
         <v>44</v>
       </c>
@@ -10056,7 +10035,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
+      <c r="A24" s="163"/>
       <c r="B24" s="17" t="s">
         <v>46</v>
       </c>
@@ -10128,7 +10107,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="17" t="s">
         <v>48</v>
       </c>
@@ -10225,40 +10204,40 @@
       <c r="X26" s="38"/>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="130" t="s">
+      <c r="A28" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="126" t="s">
+      <c r="B28" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="H28" s="126" t="s">
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="H28" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="126"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="N28" s="126" t="s">
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="160"/>
+      <c r="N28" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="T28" s="126" t="s">
+      <c r="O28" s="160"/>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="160"/>
+      <c r="R28" s="160"/>
+      <c r="T28" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="U28" s="126"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="126"/>
-      <c r="X28" s="126"/>
+      <c r="U28" s="160"/>
+      <c r="V28" s="160"/>
+      <c r="W28" s="160"/>
+      <c r="X28" s="160"/>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="130"/>
+      <c r="A29" s="161"/>
       <c r="B29" s="19" t="s">
         <v>44</v>
       </c>
@@ -10321,7 +10300,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="130"/>
+      <c r="A30" s="161"/>
       <c r="B30" s="17" t="s">
         <v>47</v>
       </c>
@@ -10395,12 +10374,12 @@
     </row>
     <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="131" t="s">
+      <c r="B31" s="158" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
       <c r="F31" s="38"/>
       <c r="H31" s="22"/>
       <c r="I31" s="39"/>
@@ -10419,40 +10398,40 @@
       <c r="X31" s="38"/>
     </row>
     <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="159" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="126" t="s">
+      <c r="B33" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="H33" s="126" t="s">
+      <c r="C33" s="160"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="H33" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="N33" s="126" t="s">
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="160"/>
+      <c r="N33" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="126"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="T33" s="126" t="s">
+      <c r="O33" s="160"/>
+      <c r="P33" s="160"/>
+      <c r="Q33" s="160"/>
+      <c r="R33" s="160"/>
+      <c r="T33" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="U33" s="126"/>
-      <c r="V33" s="126"/>
-      <c r="W33" s="126"/>
-      <c r="X33" s="126"/>
+      <c r="U33" s="160"/>
+      <c r="V33" s="160"/>
+      <c r="W33" s="160"/>
+      <c r="X33" s="160"/>
     </row>
     <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="132"/>
+      <c r="A34" s="159"/>
       <c r="B34" s="19" t="s">
         <v>44</v>
       </c>
@@ -10515,7 +10494,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="132"/>
+      <c r="A35" s="159"/>
       <c r="B35" s="17" t="s">
         <v>47</v>
       </c>
@@ -10589,12 +10568,12 @@
     </row>
     <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
-      <c r="B36" s="131" t="s">
+      <c r="B36" s="158" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
       <c r="F36" s="38"/>
       <c r="H36" s="22"/>
       <c r="I36" s="39"/>
@@ -10733,27 +10712,27 @@
       <c r="G46" s="35"/>
     </row>
     <row r="48" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="128" t="s">
+      <c r="B48" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="128" t="s">
+      <c r="C48" s="162" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="128"/>
-      <c r="J48" s="128"/>
-      <c r="K48" s="128"/>
-      <c r="L48" s="128"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="128"/>
-      <c r="O48" s="128"/>
+      <c r="D48" s="162"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="162"/>
+      <c r="I48" s="162"/>
+      <c r="J48" s="162"/>
+      <c r="K48" s="162"/>
+      <c r="L48" s="162"/>
+      <c r="M48" s="162"/>
+      <c r="N48" s="162"/>
+      <c r="O48" s="162"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B49" s="128"/>
+      <c r="B49" s="162"/>
       <c r="C49" s="33">
         <v>2018</v>
       </c>
@@ -11702,18 +11681,14 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="T22:X22"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:O48"/>
     <mergeCell ref="A16:A19"/>
@@ -11730,25 +11705,29 @@
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="N33:R33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F66" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf"/>
-    <hyperlink ref="F65" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf"/>
-    <hyperlink ref="F64" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf"/>
-    <hyperlink ref="F63" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf"/>
-    <hyperlink ref="F62" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf"/>
-    <hyperlink ref="F61" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf"/>
-    <hyperlink ref="F60" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf"/>
-    <hyperlink ref="F59" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf"/>
-    <hyperlink ref="K88" r:id="rId9"/>
+    <hyperlink ref="F66" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F65" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F64" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="F63" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="F62" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="F61" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="F60" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="F59" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="K88" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -11756,72 +11735,73 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="133"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="133"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="105"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="133"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="105"/>
     </row>
     <row r="4" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="141"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="113"/>
       <c r="J4" s="165" t="s">
         <v>181</v>
       </c>
@@ -11833,28 +11813,28 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="39.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="164" t="s">
+      <c r="E5" s="136" t="s">
         <v>192</v>
       </c>
-      <c r="F5" s="164" t="s">
+      <c r="F5" s="136" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="142" t="s">
+      <c r="G5" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="143" t="s">
+      <c r="H5" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="I5" s="144" t="s">
+      <c r="I5" s="116" t="s">
         <v>185</v>
       </c>
       <c r="J5" s="166"/>
@@ -11862,129 +11842,129 @@
       <c r="L5" s="170"/>
     </row>
     <row r="6" spans="2:12" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="145" t="s">
+      <c r="E6" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="146" t="s">
+      <c r="F6" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="145" t="s">
+      <c r="G6" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="147" t="s">
+      <c r="H6" s="119" t="s">
         <v>187</v>
       </c>
-      <c r="I6" s="147" t="s">
+      <c r="I6" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="J6" s="148" t="s">
+      <c r="J6" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="K6" s="149" t="s">
+      <c r="K6" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="L6" s="150" t="s">
+      <c r="L6" s="122" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="151">
+      <c r="B7" s="123">
         <v>2018</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="124" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="152" t="s">
+      <c r="D7" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="153">
+      <c r="E7" s="125">
         <v>14400</v>
       </c>
-      <c r="F7" s="153">
+      <c r="F7" s="125">
         <v>43200</v>
       </c>
-      <c r="G7" s="151">
+      <c r="G7" s="123">
         <v>1</v>
       </c>
-      <c r="H7" s="154">
+      <c r="H7" s="126">
         <f>Factores!C41</f>
         <v>0.16289999999999999</v>
       </c>
-      <c r="I7" s="154" t="s">
+      <c r="I7" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="155">
+      <c r="J7" s="127">
         <f>(E7+F7)*G7*Factores!V7/1000000</f>
         <v>10.306607229882443</v>
       </c>
-      <c r="K7" s="156">
+      <c r="K7" s="128">
         <f>(F7*G7*H7*Factores!P68/(1-Factores!C67))/1000+(E7*G7*Factores!V7/1000000)</f>
         <v>3.7688968824916476</v>
       </c>
-      <c r="L7" s="157">
+      <c r="L7" s="129">
         <f>J7-K7</f>
         <v>6.5377103473907958</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="151">
+      <c r="B8" s="123">
         <v>2018</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="152" t="s">
+      <c r="D8" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="153">
+      <c r="E8" s="125">
         <v>21000</v>
       </c>
-      <c r="F8" s="153">
+      <c r="F8" s="125">
         <v>39000</v>
       </c>
-      <c r="G8" s="151">
+      <c r="G8" s="123">
         <v>1</v>
       </c>
-      <c r="H8" s="154">
+      <c r="H8" s="126">
         <f>Factores!C42</f>
         <v>1.1765000000000001</v>
       </c>
-      <c r="I8" s="154" t="s">
+      <c r="I8" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="J8" s="155">
+      <c r="J8" s="127">
         <f>(E8+F8)*G8*Factores!V19/1000000</f>
         <v>57.69661086017512</v>
       </c>
-      <c r="K8" s="156">
+      <c r="K8" s="128">
         <f>(F8*G8*H8*Factores!P68/(1-Factores!C67))/1000+(E8*G8*Factores!V19/1000000)</f>
         <v>27.967325285573459</v>
       </c>
-      <c r="L8" s="157">
+      <c r="L8" s="129">
         <f t="shared" ref="L8" si="0">J8-K8</f>
         <v>29.729285574601661</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="163">
+      <c r="B9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="135">
         <f>SUM(L7:L8)</f>
         <v>36.266995921992461</v>
       </c>
@@ -11999,13 +11979,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Variables!$D$3:$D$6</xm:f>
           </x14:formula1>
           <xm:sqref>D7:D8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
             <xm:f>Variables!$B$3:$B$4</xm:f>
           </x14:formula1>
